--- a/biology/Botanique/Émile_Courtier/Émile_Courtier.xlsx
+++ b/biology/Botanique/Émile_Courtier/Émile_Courtier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Courtier</t>
+          <t>Émile_Courtier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-ʽÉmile Courtier’ est un cultivar de rosier obtenu avant 1837 par le rosiériste de Gentilly, Portemer père, et introduit au commerce en 1837 par Victor Verdier[1]. C'est un rosier historique à 'origine d'une lignée de plusieurs variétés de rosiers Bourbon[2]. Ce sont notamment 'Dupetit-Thouars' (1844, rouge cramoisi), 'Joséphine Garnier', 'La Gracieuse' (1845, rose lilas), 'Madame Soupert'.
+ʽÉmile Courtier’ est un cultivar de rosier obtenu avant 1837 par le rosiériste de Gentilly, Portemer père, et introduit au commerce en 1837 par Victor Verdier. C'est un rosier historique à 'origine d'une lignée de plusieurs variétés de rosiers Bourbon. Ce sont notamment 'Dupetit-Thouars' (1844, rouge cramoisi), 'Joséphine Garnier', 'La Gracieuse' (1845, rose lilas), 'Madame Soupert'.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Courtier</t>
+          <t>Émile_Courtier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce rosier Bourbon présente des fleurs moyennes de couleur rose aux nuances lilas très pleines (26-40 pétales), fleurissant en petits bouquets; elles sont plutôt plates et sont remontantes et exhalent un parfum capiteux. Le buisson est de forme compacte avec des rameaux très épineux et un feuillage vert foncé.
-Ce rosier résiste à des températures de l'ordre de -15° C[1].
+Ce rosier résiste à des températures de l'ordre de -15° C.
 Il semble que cette variété ait disparu aujourd'hui. 
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile_Courtier</t>
+          <t>Émile_Courtier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">'Émile Courtier' a donné naissance au célèbre rosier Bourbon 'Louise Odier' (Margottin, 1851).
 </t>
